--- a/品質保証/問題点一覧.xlsx
+++ b/品質保証/問題点一覧.xlsx
@@ -16,16 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="123">
   <si>
-    <t>P票番号</t>
-    <rPh sb="1" eb="2">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>問題点</t>
     <rPh sb="0" eb="3">
       <t>モンダイテン</t>
@@ -409,56 +399,6 @@
     </rPh>
     <rPh sb="35" eb="36">
       <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>計算しない場合(gCalcOperator == OPERATOR_NONE)の場合でも、gCalcMem に入力値を入れて、「メモリに計算データあり」とする（P票No.5の修正により、この解決策が可能となった）。
-本件とP票No.6はまとめて同時に修正する。</t>
-    <rPh sb="0" eb="2">
-      <t>ケイサン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>ケイサン</t>
-    </rPh>
-    <rPh sb="81" eb="82">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="95" eb="98">
-      <t>カイケツサク</t>
-    </rPh>
-    <rPh sb="99" eb="101">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="108" eb="110">
-      <t>ホンケン</t>
-    </rPh>
-    <rPh sb="112" eb="113">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="122" eb="124">
-      <t>ドウジ</t>
-    </rPh>
-    <rPh sb="125" eb="127">
-      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -841,73 +781,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>P票No.6の修正時に、乗算ボタンと除算ボタンのボタン二重押しの判定処理を修正したが、当該関数は、修正前の判定処理で使っていた関数。この修正により、当該関数は不要になっていた。</t>
-    <rPh sb="1" eb="2">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ジョウサン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ジョサン</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ニジュウ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>トウガイ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="49" eb="52">
-      <t>シュウセイマエ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>トウガイ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>フヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>関数 isCalcOperating() を削除する。</t>
     <rPh sb="0" eb="2">
       <t>カンスウ</t>
@@ -1214,19 +1087,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>P票No.15の修正により、「1.005=」と入力して小数点以下桁数を2桁にすると、1.01ではなく1.00と表示されるように戻った</t>
-    <rPh sb="1" eb="2">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Number( 1.005 ).toFixed( 18 ) を実行すると、1.004999999999999893 になる。</t>
     <rPh sb="31" eb="33">
       <t>ジッコウ</t>
@@ -1270,44 +1130,6 @@
     </rPh>
     <rPh sb="54" eb="56">
       <t>ヘンカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>formatDecimal()関数で、小数点をずらす前に Number.toFixed() を使って、数値を小数表現の文字列に変換してから処理する。
-→デグレードのため、P票No.17のように再修正。</t>
-    <rPh sb="19" eb="22">
-      <t>ショウスウテン</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>スウチ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ショウスウ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>ヒョウゲン</t>
-    </rPh>
-    <rPh sb="59" eb="62">
-      <t>モジレツ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>ヘンカン</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="86" eb="87">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="96" eb="99">
-      <t>サイシュウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1900,120 +1722,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>仕様とする。別紙１の記述を修正する。高さ690～720も同様。
-理由：ソースを従来の仕様に合わせるように修正すると、ステップ数が増える割に、見た目が改善する範囲が微々たるものであり、得られる利益が少ない。
-→P票No.22の対応・機能強化により、見た目の改善度が増したため、縦（兼小）画面でも、縦コ１、縦コ２の表示区分を他の画面と同様にする</t>
-    <rPh sb="0" eb="2">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ベッシ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>キジュツ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>タカ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ドウヨウ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>リユウ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ジュウライ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>ワリ</t>
-    </rPh>
-    <rPh sb="70" eb="71">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="72" eb="73">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>カイゼン</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>ハンイ</t>
-    </rPh>
-    <rPh sb="81" eb="83">
-      <t>ビビ</t>
-    </rPh>
-    <rPh sb="91" eb="92">
-      <t>エ</t>
-    </rPh>
-    <rPh sb="95" eb="97">
-      <t>リエキ</t>
-    </rPh>
-    <rPh sb="98" eb="99">
-      <t>スク</t>
-    </rPh>
-    <rPh sb="106" eb="107">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="113" eb="115">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="116" eb="120">
-      <t>キノウキョウカ</t>
-    </rPh>
-    <rPh sb="124" eb="125">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="126" eb="127">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="128" eb="130">
-      <t>カイゼン</t>
-    </rPh>
-    <rPh sb="130" eb="131">
-      <t>ド</t>
-    </rPh>
-    <rPh sb="132" eb="133">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="138" eb="139">
-      <t>タテ</t>
-    </rPh>
-    <rPh sb="140" eb="141">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="141" eb="142">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="143" eb="145">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="152" eb="153">
-      <t>タテ</t>
-    </rPh>
-    <rPh sb="158" eb="160">
-      <t>クブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>501001</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2253,19 +1961,6 @@
     </rPh>
     <rPh sb="124" eb="127">
       <t>カノウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>P票No.26の対策漏れ。</t>
-    <rPh sb="1" eb="2">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>タイサク</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>モ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2530,85 +2225,6 @@
     </rPh>
     <rPh sb="64" eb="65">
       <t>ミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>P票No.30と同様、セルの大きさが枠線分ずれている。</t>
-    <rPh sb="1" eb="2">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ドウヨウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ワクセン</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Firefoxの場合だけ、横組ではtable-C、縦組では td-A3 をそれぞれ幅を1ピクセル小さくする。
-※論理的には、0.5ピクセル小さくすれば良い筈だが、それでもズーム67%のときに画面からはみ出るので、1ピクセル小さくすることにする。
-→P票No.31と併せて根本解決を図る。詳細はNo.31参照。</t>
-    <rPh sb="8" eb="10">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヨコグミ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>タテグミ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>ハバ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>チイ</t>
-    </rPh>
-    <rPh sb="56" eb="59">
-      <t>ロンリテキ</t>
-    </rPh>
-    <rPh sb="69" eb="70">
-      <t>チイ</t>
-    </rPh>
-    <rPh sb="75" eb="76">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="77" eb="78">
-      <t>ハズ</t>
-    </rPh>
-    <rPh sb="95" eb="97">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="101" eb="102">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="111" eb="112">
-      <t>チイ</t>
-    </rPh>
-    <rPh sb="125" eb="126">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="132" eb="133">
-      <t>アワ</t>
-    </rPh>
-    <rPh sb="135" eb="139">
-      <t>コンポンカイケツ</t>
-    </rPh>
-    <rPh sb="140" eb="141">
-      <t>ハカ</t>
-    </rPh>
-    <rPh sb="143" eb="145">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="151" eb="153">
-      <t>サンショウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2727,101 +2343,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>他のブラウザでも同様の問題が出ないように、以下のようにして、P票No.30と併せて根本的解決を図る。
-・外枠outer-1の右端と下端をborderではなくbackgroundにする。枠のサイズは変えない。
-・左右のセル間の境界線は、左側のセルでborder-rightで描画していたが、右側のセルでborder-leftで描画するように改める。
-・table-Aでは、右側のセル（td-A3）の幅を指定せず、左側のセル（td-A1）の幅を指定する。また、td-A1の幅を0.5px小さくする。
-・calculator-outerframeの右側と下側のpaddingを0にする。</t>
-    <rPh sb="0" eb="1">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ドウヨウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>アワ</t>
-    </rPh>
-    <rPh sb="41" eb="44">
-      <t>コンポンテキ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>カイケツ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>ハカ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ソトワク</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>ミギハシ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>シタバ</t>
-    </rPh>
-    <rPh sb="92" eb="93">
-      <t>ワク</t>
-    </rPh>
-    <rPh sb="98" eb="99">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="105" eb="107">
-      <t>サユウ</t>
-    </rPh>
-    <rPh sb="110" eb="111">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="112" eb="115">
-      <t>キョウカイセン</t>
-    </rPh>
-    <rPh sb="117" eb="119">
-      <t>ヒダリガワ</t>
-    </rPh>
-    <rPh sb="136" eb="138">
-      <t>ビョウガ</t>
-    </rPh>
-    <rPh sb="144" eb="146">
-      <t>ミギガワ</t>
-    </rPh>
-    <rPh sb="162" eb="164">
-      <t>ビョウガ</t>
-    </rPh>
-    <rPh sb="169" eb="170">
-      <t>アラタ</t>
-    </rPh>
-    <rPh sb="198" eb="199">
-      <t>ハバ</t>
-    </rPh>
-    <rPh sb="200" eb="202">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="205" eb="207">
-      <t>ヒダリガワ</t>
-    </rPh>
-    <rPh sb="218" eb="219">
-      <t>ハバ</t>
-    </rPh>
-    <rPh sb="220" eb="222">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="234" eb="235">
-      <t>ハバ</t>
-    </rPh>
-    <rPh sb="241" eb="242">
-      <t>チイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>以下の理由により、この件は対処保留とする。
 ・他のブラウザでは現象が発生しない。
 ・ズーム率を変えると発生しなくなる。
@@ -2998,6 +2519,455 @@
     </rPh>
     <rPh sb="231" eb="233">
       <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.6の修正時に、乗算ボタンと除算ボタンのボタン二重押しの判定処理を修正したが、当該関数は、修正前の判定処理で使っていた関数。この修正により、当該関数は不要になっていた。</t>
+    <rPh sb="5" eb="7">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウサン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョサン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニジュウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>トウガイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="47" eb="50">
+      <t>シュウセイマエ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>トウガイ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>フヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>formatDecimal()関数で、小数点をずらす前に Number.toFixed() を使って、数値を小数表現の文字列に変換してから処理する。
+→デグレードのため、No.17のように再修正。</t>
+    <rPh sb="19" eb="22">
+      <t>ショウスウテン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ショウスウ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="59" eb="62">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="94" eb="97">
+      <t>サイシュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.15の修正により、「1.005=」と入力して小数点以下桁数を2桁にすると、1.01ではなく1.00と表示されるように戻った</t>
+    <rPh sb="6" eb="8">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕様とする。別紙１の記述を修正する。高さ690～720も同様。
+理由：ソースを従来の仕様に合わせるように修正すると、ステップ数が増える割に、見た目が改善する範囲が微々たるものであり、得られる利益が少ない。
+→No.22の対応・機能強化により、見た目の改善度が増したため、縦（兼小）画面でも、縦コ１、縦コ２の表示区分を他の画面と同様にする</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ベッシ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>リユウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ジュウライ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ワリ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>カイゼン</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ビビ</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>リエキ</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="114" eb="118">
+      <t>キノウキョウカ</t>
+    </rPh>
+    <rPh sb="122" eb="123">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="124" eb="125">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t>カイゼン</t>
+    </rPh>
+    <rPh sb="128" eb="129">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="130" eb="131">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="136" eb="137">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="138" eb="139">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="139" eb="140">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="141" eb="143">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="150" eb="151">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="156" eb="158">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.26の対策漏れ。</t>
+    <rPh sb="6" eb="8">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Firefoxの場合だけ、横組ではtable-C、縦組では td-A3 をそれぞれ幅を1ピクセル小さくする。
+※論理的には、0.5ピクセル小さくすれば良い筈だが、それでもズーム67%のときに画面からはみ出るので、1ピクセル小さくすることにする。
+→No.31と併せて根本解決を図る。詳細はNo.31参照。</t>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヨコグミ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>タテグミ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ハバ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="56" eb="59">
+      <t>ロンリテキ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>ハズ</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="130" eb="131">
+      <t>アワ</t>
+    </rPh>
+    <rPh sb="133" eb="137">
+      <t>コンポンカイケツ</t>
+    </rPh>
+    <rPh sb="138" eb="139">
+      <t>ハカ</t>
+    </rPh>
+    <rPh sb="141" eb="143">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.30と同様、セルの大きさが枠線分ずれている。</t>
+    <rPh sb="6" eb="8">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ワクセン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他のブラウザでも同様の問題が出ないように、以下のようにして、No.30と併せて根本的解決を図る。
+・外枠outer-1の右端と下端をborderではなくbackgroundにする。枠のサイズは変えない。
+・左右のセル間の境界線は、左側のセルでborder-rightで描画していたが、右側のセルでborder-leftで描画するように改める。
+・table-Aでは、右側のセル（td-A3）の幅を指定せず、左側のセル（td-A1）の幅を指定する。また、td-A1の幅を0.5px小さくする。
+・calculator-outerframeの右側と下側のpaddingを0にする。</t>
+    <rPh sb="0" eb="1">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>アワ</t>
+    </rPh>
+    <rPh sb="39" eb="42">
+      <t>コンポンテキ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>カイケツ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ハカ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ソトワク</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ミギハシ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>シタバ</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>サユウ</t>
+    </rPh>
+    <rPh sb="108" eb="109">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="110" eb="113">
+      <t>キョウカイセン</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>ヒダリガワ</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>ビョウガ</t>
+    </rPh>
+    <rPh sb="142" eb="144">
+      <t>ミギガワ</t>
+    </rPh>
+    <rPh sb="160" eb="162">
+      <t>ビョウガ</t>
+    </rPh>
+    <rPh sb="167" eb="168">
+      <t>アラタ</t>
+    </rPh>
+    <rPh sb="196" eb="197">
+      <t>ハバ</t>
+    </rPh>
+    <rPh sb="198" eb="200">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="203" eb="205">
+      <t>ヒダリガワ</t>
+    </rPh>
+    <rPh sb="216" eb="217">
+      <t>ハバ</t>
+    </rPh>
+    <rPh sb="218" eb="220">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="232" eb="233">
+      <t>ハバ</t>
+    </rPh>
+    <rPh sb="239" eb="240">
+      <t>チイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計算しない場合(gCalcOperator == OPERATOR_NONE)の場合でも、gCalcMem に入力値を入れて、「メモリに計算データあり」とする（No.5の修正により、この解決策が可能となった）。
+本件とNo.6はまとめて同時に修正する。</t>
+    <rPh sb="0" eb="2">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="93" eb="96">
+      <t>カイケツサク</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>ホンケン</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問題点No.</t>
+    <rPh sb="0" eb="3">
+      <t>モンダイテン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3374,12 +3344,12 @@
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.75" customWidth="1"/>
     <col min="3" max="3" width="40.875" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
@@ -3390,25 +3360,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="27">
@@ -3416,10 +3386,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="4">
         <v>43692</v>
@@ -3428,10 +3398,10 @@
         <v>43692</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="27">
@@ -3439,10 +3409,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="4">
         <v>43692</v>
@@ -3451,10 +3421,10 @@
         <v>43692</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="32.25" customHeight="1">
@@ -3462,10 +3432,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="4">
         <v>43692</v>
@@ -3474,10 +3444,10 @@
         <v>43692</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1">
@@ -3485,10 +3455,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="D5" s="4">
         <v>43692</v>
@@ -3497,10 +3467,10 @@
         <v>43692</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="81.75" customHeight="1">
@@ -3508,10 +3478,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="D6" s="4">
         <v>43693</v>
@@ -3520,10 +3490,10 @@
         <v>43693</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="55.5" customHeight="1">
@@ -3531,10 +3501,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="D7" s="4">
         <v>43693</v>
@@ -3543,10 +3513,10 @@
         <v>43693</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="130.5" customHeight="1">
@@ -3554,10 +3524,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="D8" s="4">
         <v>43693</v>
@@ -3566,10 +3536,10 @@
         <v>43693</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="82.5" customHeight="1">
@@ -3577,10 +3547,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D9" s="4">
         <v>43695</v>
@@ -3589,10 +3559,10 @@
         <v>43695</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="114" customHeight="1">
@@ -3600,10 +3570,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="D10" s="4">
         <v>43697</v>
@@ -3612,10 +3582,10 @@
         <v>43697</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1">
@@ -3623,10 +3593,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D11" s="4">
         <v>43698</v>
@@ -3635,10 +3605,10 @@
         <v>43698</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="113.25" customHeight="1">
@@ -3646,10 +3616,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D12" s="4">
         <v>43700</v>
@@ -3658,10 +3628,10 @@
         <v>43701</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="56.25" customHeight="1">
@@ -3669,10 +3639,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D13" s="4">
         <v>43702</v>
@@ -3681,10 +3651,10 @@
         <v>43702</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="97.5" customHeight="1">
@@ -3692,10 +3662,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D14" s="4">
         <v>43702</v>
@@ -3704,10 +3674,10 @@
         <v>43703</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="123.75" customHeight="1">
@@ -3715,10 +3685,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D15" s="4">
         <v>43702</v>
@@ -3727,10 +3697,10 @@
         <v>43703</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="99.75" customHeight="1">
@@ -3738,10 +3708,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D16" s="4">
         <v>43705</v>
@@ -3750,10 +3720,10 @@
         <v>43707</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="69.75" customHeight="1">
@@ -3761,10 +3731,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D17" s="4">
         <v>43705</v>
@@ -3773,10 +3743,10 @@
         <v>43707</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="72.75" customHeight="1">
@@ -3784,10 +3754,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="D18" s="4">
         <v>43707</v>
@@ -3796,10 +3766,10 @@
         <v>43707</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="27" customHeight="1">
@@ -3807,10 +3777,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D19" s="4">
         <v>43707</v>
@@ -3819,10 +3789,10 @@
         <v>43709</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="40.5" customHeight="1">
@@ -3830,10 +3800,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D20" s="4">
         <v>43711</v>
@@ -3842,10 +3812,10 @@
         <v>43712</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="33.75" customHeight="1">
@@ -3853,10 +3823,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D21" s="4">
         <v>43721</v>
@@ -3865,10 +3835,10 @@
         <v>43721</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="201" customHeight="1">
@@ -3876,10 +3846,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="D22" s="4">
         <v>43721</v>
@@ -3888,10 +3858,10 @@
         <v>43730</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="270" customHeight="1">
@@ -3899,10 +3869,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D23" s="4">
         <v>43723</v>
@@ -3911,10 +3881,10 @@
         <v>43730</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="108.75" customHeight="1">
@@ -3922,10 +3892,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D24" s="4">
         <v>43723</v>
@@ -3934,10 +3904,10 @@
         <v>43724</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="80.25" customHeight="1">
@@ -3945,10 +3915,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D25" s="4">
         <v>43723</v>
@@ -3957,10 +3927,10 @@
         <v>43724</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="80.25" customHeight="1">
@@ -3968,10 +3938,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D26" s="4">
         <v>43724</v>
@@ -3980,10 +3950,10 @@
         <v>43724</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="88.5" customHeight="1">
@@ -3991,10 +3961,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D27" s="4">
         <v>43730</v>
@@ -4003,10 +3973,10 @@
         <v>43730</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="84" customHeight="1">
@@ -4014,10 +3984,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D28" s="4">
         <v>43731</v>
@@ -4026,10 +3996,10 @@
         <v>43731</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="187.5" customHeight="1">
@@ -4037,10 +4007,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D29" s="4">
         <v>43731</v>
@@ -4049,10 +4019,10 @@
         <v>43731</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="172.5" customHeight="1">
@@ -4060,10 +4030,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D30" s="4">
         <v>43732</v>
@@ -4072,10 +4042,10 @@
         <v>43736</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="172.5" customHeight="1">
@@ -4083,10 +4053,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D31" s="4">
         <v>43732</v>
@@ -4095,10 +4065,10 @@
         <v>43736</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="261.75" customHeight="1">
@@ -4106,10 +4076,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D32" s="4">
         <v>43734</v>
@@ -4118,7 +4088,7 @@
         <v>43737</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>120</v>
@@ -4129,10 +4099,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D33" s="4">
         <v>43736</v>
@@ -4141,10 +4111,10 @@
         <v>43737</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="13.5" customHeight="1"/>
